--- a/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
+++ b/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:09:08+00:00</t>
+    <t>2024-02-07T14:17:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
+++ b/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:17:06+00:00</t>
+    <t>2024-02-07T14:20:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
+++ b/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T14:20:58+00:00</t>
+    <t>2024-02-07T15:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
+++ b/nr-update-annuaire/ig/StructureDefinition-gap-fr-slot.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T15:05:03+00:00</t>
+    <t>2024-02-07T15:55:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
